--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H2">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I2">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J2">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N2">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q2">
-        <v>257.1722702793004</v>
+        <v>382.507145880636</v>
       </c>
       <c r="R2">
-        <v>2314.550432513704</v>
+        <v>3442.564312925724</v>
       </c>
       <c r="S2">
-        <v>0.2775071947875632</v>
+        <v>0.2398002418992871</v>
       </c>
       <c r="T2">
-        <v>0.2775071947875632</v>
+        <v>0.2398002418992871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H3">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I3">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J3">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q3">
-        <v>87.71562401374577</v>
+        <v>43.567610984184</v>
       </c>
       <c r="R3">
-        <v>789.4406161237119</v>
+        <v>392.108498857656</v>
       </c>
       <c r="S3">
-        <v>0.09465140519488756</v>
+        <v>0.02731327706029728</v>
       </c>
       <c r="T3">
-        <v>0.09465140519488756</v>
+        <v>0.02731327706029728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H4">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I4">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J4">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q4">
-        <v>73.19597576292088</v>
+        <v>36.355824102066</v>
       </c>
       <c r="R4">
-        <v>658.7637818662879</v>
+        <v>327.202416918594</v>
       </c>
       <c r="S4">
-        <v>0.07898367067976056</v>
+        <v>0.02279208508393177</v>
       </c>
       <c r="T4">
-        <v>0.07898367067976059</v>
+        <v>0.02279208508393178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>353.595055</v>
       </c>
       <c r="I5">
-        <v>0.3424330232507294</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J5">
-        <v>0.3424330232507295</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N5">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O5">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P5">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q5">
-        <v>195.2028965911995</v>
+        <v>584.5408719958378</v>
       </c>
       <c r="R5">
-        <v>1756.826069320795</v>
+        <v>5260.86784796254</v>
       </c>
       <c r="S5">
-        <v>0.2106378272766318</v>
+        <v>0.3664586244053178</v>
       </c>
       <c r="T5">
-        <v>0.2106378272766318</v>
+        <v>0.3664586244053178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>353.595055</v>
       </c>
       <c r="I6">
-        <v>0.3424330232507294</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J6">
-        <v>0.3424330232507295</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q6">
         <v>66.57927724941779</v>
@@ -818,10 +818,10 @@
         <v>599.21349524476</v>
       </c>
       <c r="S6">
-        <v>0.07184378175922061</v>
+        <v>0.04173968241333797</v>
       </c>
       <c r="T6">
-        <v>0.0718437817592206</v>
+        <v>0.04173968241333797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>353.595055</v>
       </c>
       <c r="I7">
-        <v>0.3424330232507294</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J7">
-        <v>0.3424330232507295</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q7">
         <v>55.55834799849889</v>
@@ -880,10 +880,10 @@
         <v>500.02513198649</v>
       </c>
       <c r="S7">
-        <v>0.05995141421487705</v>
+        <v>0.03483047423569522</v>
       </c>
       <c r="T7">
-        <v>0.05995141421487706</v>
+        <v>0.03483047423569522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>213.153377</v>
       </c>
       <c r="I8">
-        <v>0.2064247060870591</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J8">
-        <v>0.2064247060870591</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N8">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O8">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P8">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q8">
-        <v>117.6717717633126</v>
+        <v>352.3716157751062</v>
       </c>
       <c r="R8">
-        <v>1059.045945869813</v>
+        <v>3171.344541975956</v>
       </c>
       <c r="S8">
-        <v>0.1269762220174623</v>
+        <v>0.2209077650216803</v>
       </c>
       <c r="T8">
-        <v>0.1269762220174623</v>
+        <v>0.2209077650216802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>213.153377</v>
       </c>
       <c r="I9">
-        <v>0.2064247060870591</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J9">
-        <v>0.2064247060870591</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.694632</v>
       </c>
       <c r="O9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q9">
         <v>40.13517039691822</v>
@@ -1004,10 +1004,10 @@
         <v>361.2165335722639</v>
       </c>
       <c r="S9">
-        <v>0.04330870718321803</v>
+        <v>0.02516142161917535</v>
       </c>
       <c r="T9">
-        <v>0.04330870718321802</v>
+        <v>0.02516142161917535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>213.153377</v>
       </c>
       <c r="I10">
-        <v>0.2064247060870591</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J10">
-        <v>0.2064247060870591</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.414118</v>
       </c>
       <c r="O10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q10">
         <v>33.49155857516511</v>
@@ -1066,10 +1066,10 @@
         <v>301.424027176486</v>
       </c>
       <c r="S10">
-        <v>0.03613977688637882</v>
+        <v>0.02099642826127738</v>
       </c>
       <c r="T10">
-        <v>0.03613977688637882</v>
+        <v>0.02099642826127738</v>
       </c>
     </row>
   </sheetData>
